--- a/notebooks/Final_Influencer_Data_insights_up_dec1_t2.xlsx
+++ b/notebooks/Final_Influencer_Data_insights_up_dec1_t2.xlsx
@@ -846,10 +846,10 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="1" style="1" width="23.38"/>
   </cols>
